--- a/sheet4.xlsx
+++ b/sheet4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,35 +436,40 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>STUDENTID</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Studentname</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Marks</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>courseId</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>courseName</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>courseDescription</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Percentage</t>
         </is>
@@ -475,32 +480,34 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>wardha</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>45</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>1</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Distributed Programming</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>This course is related to programming</t>
         </is>
       </c>
-      <c r="H2">
-        <f>(D2/100 * 100)</f>
-        <v/>
+      <c r="I2" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -508,32 +515,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
         <v>5</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>adnan</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>90</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>1</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Distributed Programming</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>This course is related to programming</t>
         </is>
       </c>
-      <c r="H3">
-        <f>(D3/100 * 100)</f>
-        <v/>
+      <c r="I3" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="4">
@@ -543,30 +552,32 @@
       <c r="B4" t="n">
         <v>2</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>Kashif</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>85</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>2</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>networking</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>This course is related to Networking</t>
         </is>
       </c>
-      <c r="H4">
-        <f>(D4/100 * 100)</f>
-        <v/>
+      <c r="I4" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="5">
@@ -576,30 +587,32 @@
       <c r="B5" t="n">
         <v>3</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>wardha</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>67</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>3</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Databases</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>This course is related to Databases</t>
         </is>
       </c>
-      <c r="H5">
-        <f>(D5/100 * 100)</f>
-        <v/>
+      <c r="I5" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="6">
@@ -609,36 +622,32 @@
       <c r="B6" t="n">
         <v>4</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>Kashif</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>88</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>4</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>DSA</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>This course is related to DSA</t>
         </is>
       </c>
-      <c r="H6">
-        <f>(D6/100 * 100)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="H7">
-        <f>(D7/100 * 100)</f>
-        <v/>
+      <c r="I6" t="n">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
